--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Product treatment.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Product treatment.xlsx
@@ -26,186 +26,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Processed</t>
-  </si>
-  <si>
-    <t>T100A</t>
-  </si>
-  <si>
-    <t>To be used for processed products that cannot be used described with the classes below</t>
-  </si>
-  <si>
-    <t>Peeling (inedible peel)</t>
-  </si>
-  <si>
-    <t>T101A</t>
-  </si>
-  <si>
-    <t>Removal of inedible peel where the internal fruit or vegetable is the food item (applies to banannas, pineapple, cucurbits etc)</t>
-  </si>
-  <si>
-    <t>Peeling (edible peel)</t>
-  </si>
-  <si>
-    <t>T102A</t>
-  </si>
-  <si>
-    <t>Removal of edible peel where the pomace is the food item (applies to pome fruits etc )</t>
-  </si>
-  <si>
-    <t>Juicing</t>
-  </si>
-  <si>
-    <t>T103A</t>
-  </si>
-  <si>
-    <t>Production of juice from fruit or vegetables include pulp and puree (applies to citrus fruits etc)</t>
-  </si>
-  <si>
-    <t>Oil production</t>
-  </si>
-  <si>
-    <t>T104A</t>
-  </si>
-  <si>
-    <t>Oil production by pressing or extraction including meal or press cake used as animal feed</t>
-  </si>
-  <si>
-    <t>Oil production - Virgin oil after cold press</t>
-  </si>
-  <si>
-    <t>T105A</t>
-  </si>
-  <si>
-    <t>Oil production using cold pressing (applies to olive)</t>
-  </si>
-  <si>
-    <t>Oil production - Cold press</t>
-  </si>
-  <si>
-    <t>T106A</t>
-  </si>
-  <si>
-    <t>Oil production using cold pressing (applies to olive, rapeseed, peanuts, sunflower etc)</t>
-  </si>
-  <si>
-    <t>Oil production - Warm press</t>
-  </si>
-  <si>
-    <t>T107A</t>
-  </si>
-  <si>
-    <t>Oil production using warm pressing (applies to olive, rapeseed, peanuts, sunflower etc)</t>
-  </si>
-  <si>
-    <t>Oil production - refined oils</t>
-  </si>
-  <si>
-    <t>T108A</t>
-  </si>
-  <si>
-    <t>Refined oil production using warm pressing (applies to olive, rapeseed, peanuts, sunflower etc)</t>
-  </si>
-  <si>
-    <t>Oil production - Solvent Extraction</t>
-  </si>
-  <si>
-    <t>T109A</t>
-  </si>
-  <si>
-    <t>Oil production involving crushing and solvent extraction (applies to soybean, sunflower, linseed etc)</t>
-  </si>
-  <si>
-    <t>Milling</t>
-  </si>
-  <si>
-    <t>T110A</t>
-  </si>
-  <si>
-    <t>Production of flour, bran, germ, gluten, polished from cereal (applies to wheat, rice, maize etc)</t>
-  </si>
-  <si>
-    <t>Milling - unprocessed flour</t>
-  </si>
-  <si>
-    <t>T111A</t>
-  </si>
-  <si>
-    <t>Production of wholemeal flours</t>
-  </si>
-  <si>
-    <t>Milling - refined flour</t>
-  </si>
-  <si>
-    <t>T112A</t>
-  </si>
-  <si>
-    <t>Production of refined (white) flour</t>
-  </si>
-  <si>
-    <t>Milling - bran production</t>
-  </si>
-  <si>
-    <t>T113A</t>
-  </si>
-  <si>
-    <t>Production of cereal bran</t>
-  </si>
-  <si>
-    <t>Polishing</t>
-  </si>
-  <si>
-    <t>T114A</t>
-  </si>
-  <si>
-    <t>Cereal polishing (applies to rice, barley etc)</t>
-  </si>
-  <si>
-    <t>Silage/Fodder production</t>
-  </si>
-  <si>
-    <t>T115A</t>
-  </si>
-  <si>
-    <t>Process to product animal feed</t>
-  </si>
-  <si>
-    <t>Sugar production</t>
-  </si>
-  <si>
-    <t>T116A</t>
-  </si>
-  <si>
-    <t>Extraction of sugar (applied to sugar cane, sugar beet etc)</t>
-  </si>
-  <si>
-    <t>Sugar production - raw</t>
-  </si>
-  <si>
-    <t>T117A</t>
-  </si>
-  <si>
-    <t>Extraction of raw sugar (applied to sugar cane, sugar beet etc)</t>
-  </si>
-  <si>
-    <t>Sugar production - refined</t>
-  </si>
-  <si>
-    <t>T118A</t>
-  </si>
-  <si>
-    <t>Extraction of refined sugar (applied to sugar cane, sugar beet etc)</t>
-  </si>
-  <si>
-    <t>Infusion / extractions</t>
-  </si>
-  <si>
-    <t>T119A</t>
-  </si>
-  <si>
-    <t>Infusions, roasting and extraction (applies to coffee, cacao, tea etc)</t>
-  </si>
-  <si>
     <t>Canning</t>
   </si>
   <si>
@@ -215,58 +35,22 @@
     <t>Canning of fruit or vegetables (applies to pears, pineapple, peach, carrots, peas etc)</t>
   </si>
   <si>
-    <t>Preserving</t>
-  </si>
-  <si>
-    <t>T121A</t>
-  </si>
-  <si>
-    <t>Production of jams, sauces, marmalades, jelly (applies to citrus fruits, berries, tomatoes etc)</t>
-  </si>
-  <si>
-    <t>Production of alcoholic beverages</t>
-  </si>
-  <si>
-    <t>T122A</t>
-  </si>
-  <si>
-    <t>Fermentation, Malting, Brewing, Distillation (applies to grapes (Wine, Must), hops (Beer), barley (Beer) etc)</t>
-  </si>
-  <si>
-    <t>Wine production</t>
-  </si>
-  <si>
-    <t>T123A</t>
-  </si>
-  <si>
-    <t>Production of wine process unknown (applies to grapes)</t>
-  </si>
-  <si>
-    <t>Wine production - white wine</t>
-  </si>
-  <si>
-    <t>T124A</t>
-  </si>
-  <si>
-    <t>White wine production (unheated)</t>
-  </si>
-  <si>
-    <t>Wine production - red wine cold process</t>
-  </si>
-  <si>
-    <t>T125A</t>
-  </si>
-  <si>
-    <t>Red wine production (unheated)</t>
-  </si>
-  <si>
-    <t>Wine production - red wine warm process</t>
-  </si>
-  <si>
-    <t>T126A</t>
-  </si>
-  <si>
-    <t>Red wine production (heated)</t>
+    <t>Churning</t>
+  </si>
+  <si>
+    <t>T134A</t>
+  </si>
+  <si>
+    <t>Processing dairy products (applies to butter, cheese etc)</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>T136A</t>
+  </si>
+  <si>
+    <t>Increase in certain contents by removing water or other constituents</t>
   </si>
   <si>
     <t>Cooking</t>
@@ -278,6 +62,24 @@
     <t>Application of heat to a product</t>
   </si>
   <si>
+    <t>Cooking in air (Baking)</t>
+  </si>
+  <si>
+    <t>T130A</t>
+  </si>
+  <si>
+    <t>Cooking at a high temperature in air (applies to potatoes, bread)</t>
+  </si>
+  <si>
+    <t>Cooking in oil (Frying)</t>
+  </si>
+  <si>
+    <t>T129A</t>
+  </si>
+  <si>
+    <t>Cooking in hot oil (applies to potatoes etc)</t>
+  </si>
+  <si>
     <t>Cooking in water</t>
   </si>
   <si>
@@ -285,156 +87,6 @@
   </si>
   <si>
     <t>Boiling, Poaching of products (applies to potatoes, pulses etc)</t>
-  </si>
-  <si>
-    <t>Cooking in oil (Frying)</t>
-  </si>
-  <si>
-    <t>T129A</t>
-  </si>
-  <si>
-    <t>Cooking in hot oil (applies to potatoes etc)</t>
-  </si>
-  <si>
-    <t>Cooking in air (Baking)</t>
-  </si>
-  <si>
-    <t>T130A</t>
-  </si>
-  <si>
-    <t>Cooking at a high temperature in air (applies to potatoes, bread)</t>
-  </si>
-  <si>
-    <t>Dehydration</t>
-  </si>
-  <si>
-    <t>T131A</t>
-  </si>
-  <si>
-    <t>The removal of water (applies to plums, apricots, grapes, dates, potatoes, fungi etc)</t>
-  </si>
-  <si>
-    <t>Fermentation</t>
-  </si>
-  <si>
-    <t>T132A</t>
-  </si>
-  <si>
-    <t>Fermentation for purposes other than the production of alcoholic beverages (applies to cabbage, soya, rice etc)</t>
-  </si>
-  <si>
-    <t>Pickling</t>
-  </si>
-  <si>
-    <t>T133A</t>
-  </si>
-  <si>
-    <t>Brining or corning, preserving of food by anaerobic fermentation in salt solution (applies to cucumber, cabbage etc)</t>
-  </si>
-  <si>
-    <t>Churning</t>
-  </si>
-  <si>
-    <t>T134A</t>
-  </si>
-  <si>
-    <t>Processing dairy products (applies to butter, cheese etc)</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>T135A</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>T136A</t>
-  </si>
-  <si>
-    <t>Increase in certain contents by removing water or other constituents</t>
-  </si>
-  <si>
-    <t>Decortication</t>
-  </si>
-  <si>
-    <t>T137A</t>
-  </si>
-  <si>
-    <t>Complete or partial removal of outer layers from grains, seeds, fruits, nuts and others</t>
-  </si>
-  <si>
-    <t>Extrusion</t>
-  </si>
-  <si>
-    <t>T138A</t>
-  </si>
-  <si>
-    <t>Pressing of material through an orifice under pressure.</t>
-  </si>
-  <si>
-    <t>Flaking</t>
-  </si>
-  <si>
-    <t>T139A</t>
-  </si>
-  <si>
-    <t>Rolling of moist heat-treated material</t>
-  </si>
-  <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>T140A</t>
-  </si>
-  <si>
-    <t>General term covering a number of heat treatments carried out under specific conditions to influence the nutritional value or the structure of the material</t>
-  </si>
-  <si>
-    <t>Hydrogenation</t>
-  </si>
-  <si>
-    <t>T141A</t>
-  </si>
-  <si>
-    <t>Transformation of unsaturated glycerides into saturated glycerides (of oils and fats)</t>
-  </si>
-  <si>
-    <t>Hydrolysis</t>
-  </si>
-  <si>
-    <t>T142A</t>
-  </si>
-  <si>
-    <t>Breakdown into simpler chemical constituents by appropriate treatment with water and possibly either enzymes or acid/alkali</t>
-  </si>
-  <si>
-    <t>Pelleting</t>
-  </si>
-  <si>
-    <t>T143A</t>
-  </si>
-  <si>
-    <t>Special shaping by compression through a die</t>
-  </si>
-  <si>
-    <t>Pregelatinisation</t>
-  </si>
-  <si>
-    <t>T144A</t>
-  </si>
-  <si>
-    <t>Modification of starch to improve markedly its swelling properties in cold water</t>
-  </si>
-  <si>
-    <t>Refining</t>
-  </si>
-  <si>
-    <t>T145A</t>
-  </si>
-  <si>
-    <t>Complete or partial removal of impurities in sugars, oils,fats and other natural materials by chemical/physical treatment. For oils and sugar use their specific entry in sugar production and oil production.</t>
   </si>
   <si>
     <t>Crushing</t>
@@ -447,6 +99,24 @@
 reduce their size</t>
   </si>
   <si>
+    <t>Decortication</t>
+  </si>
+  <si>
+    <t>T137A</t>
+  </si>
+  <si>
+    <t>Complete or partial removal of outer layers from grains, seeds, fruits, nuts and others</t>
+  </si>
+  <si>
+    <t>Dehydration</t>
+  </si>
+  <si>
+    <t>T131A</t>
+  </si>
+  <si>
+    <t>The removal of water (applies to plums, apricots, grapes, dates, potatoes, fungi etc)</t>
+  </si>
+  <si>
     <t>Desugaring</t>
   </si>
   <si>
@@ -456,6 +126,354 @@
     <t>Complete or partial removal of mono- and disaccharides from molasses and other material containing sugar by chemical or physical means</t>
   </si>
   <si>
+    <t>Extrusion</t>
+  </si>
+  <si>
+    <t>T138A</t>
+  </si>
+  <si>
+    <t>Pressing of material through an orifice under pressure.</t>
+  </si>
+  <si>
+    <t>Fermentation</t>
+  </si>
+  <si>
+    <t>T132A</t>
+  </si>
+  <si>
+    <t>Fermentation for purposes other than the production of alcoholic beverages (applies to cabbage, soya, rice etc)</t>
+  </si>
+  <si>
+    <t>Flaking</t>
+  </si>
+  <si>
+    <t>T139A</t>
+  </si>
+  <si>
+    <t>Rolling of moist heat-treated material</t>
+  </si>
+  <si>
+    <t>Freezing</t>
+  </si>
+  <si>
+    <t>T998A</t>
+  </si>
+  <si>
+    <t>Freezing of harvested products</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>T140A</t>
+  </si>
+  <si>
+    <t>General term covering a number of heat treatments carried out under specific conditions to influence the nutritional value or the structure of the material</t>
+  </si>
+  <si>
+    <t>Hydrogenation</t>
+  </si>
+  <si>
+    <t>T141A</t>
+  </si>
+  <si>
+    <t>Transformation of unsaturated glycerides into saturated glycerides (of oils and fats)</t>
+  </si>
+  <si>
+    <t>Hydrolysis</t>
+  </si>
+  <si>
+    <t>T142A</t>
+  </si>
+  <si>
+    <t>Breakdown into simpler chemical constituents by appropriate treatment with water and possibly either enzymes or acid/alkali</t>
+  </si>
+  <si>
+    <t>Infusion / extractions</t>
+  </si>
+  <si>
+    <t>T119A</t>
+  </si>
+  <si>
+    <t>Infusions, roasting and extraction (applies to coffee, cacao, tea etc)</t>
+  </si>
+  <si>
+    <t>Juicing</t>
+  </si>
+  <si>
+    <t>T103A</t>
+  </si>
+  <si>
+    <t>Production of juice from fruit or vegetables include pulp and puree (applies to citrus fruits etc)</t>
+  </si>
+  <si>
+    <t>Milk pasteurisation</t>
+  </si>
+  <si>
+    <t>T150A</t>
+  </si>
+  <si>
+    <t>Pasteurisation, filtration, sterilisation or other treatments of raw milk with the purpose of extending the shelfs-life of milk.</t>
+  </si>
+  <si>
+    <t>Milling</t>
+  </si>
+  <si>
+    <t>T110A</t>
+  </si>
+  <si>
+    <t>Production of flour, bran, germ, gluten, polished from cereal (applies to wheat, rice, maize etc)</t>
+  </si>
+  <si>
+    <t>Milling - bran production</t>
+  </si>
+  <si>
+    <t>T113A</t>
+  </si>
+  <si>
+    <t>Production of cereal bran</t>
+  </si>
+  <si>
+    <t>Milling - refined flour</t>
+  </si>
+  <si>
+    <t>T112A</t>
+  </si>
+  <si>
+    <t>Production of refined (white) flour</t>
+  </si>
+  <si>
+    <t>Milling - unprocessed flour</t>
+  </si>
+  <si>
+    <t>T111A</t>
+  </si>
+  <si>
+    <t>Production of wholemeal flours</t>
+  </si>
+  <si>
+    <t>Oil production</t>
+  </si>
+  <si>
+    <t>T104A</t>
+  </si>
+  <si>
+    <t>Oil production by pressing or extraction including meal or press cake used as animal feed</t>
+  </si>
+  <si>
+    <t>Oil production - Cold press</t>
+  </si>
+  <si>
+    <t>T106A</t>
+  </si>
+  <si>
+    <t>Oil production using cold pressing (applies to olive, rapeseed, peanuts, sunflower etc)</t>
+  </si>
+  <si>
+    <t>Oil production - refined oils</t>
+  </si>
+  <si>
+    <t>T108A</t>
+  </si>
+  <si>
+    <t>Refined oil production using warm pressing (applies to olive, rapeseed, peanuts, sunflower etc)</t>
+  </si>
+  <si>
+    <t>Oil production - Solvent Extraction</t>
+  </si>
+  <si>
+    <t>T109A</t>
+  </si>
+  <si>
+    <t>Oil production involving crushing and solvent extraction (applies to soybean, sunflower, linseed etc)</t>
+  </si>
+  <si>
+    <t>Oil production - Virgin oil after cold press</t>
+  </si>
+  <si>
+    <t>T105A</t>
+  </si>
+  <si>
+    <t>Oil production using cold pressing (applies to olive)</t>
+  </si>
+  <si>
+    <t>Oil production - Warm press</t>
+  </si>
+  <si>
+    <t>T107A</t>
+  </si>
+  <si>
+    <t>Oil production using warm pressing (applies to olive, rapeseed, peanuts, sunflower etc)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Pasteurisation</t>
+  </si>
+  <si>
+    <t>T151A</t>
+  </si>
+  <si>
+    <t>Pasteurization is a process of heating a food, usually a liquid, to a specific temperature for a definite length of time and then cooling it immediately. Pasteurization slows microbial growth in the food.</t>
+  </si>
+  <si>
+    <t>Peeling (edible peel)</t>
+  </si>
+  <si>
+    <t>T102A</t>
+  </si>
+  <si>
+    <t>Removal of edible peel where the pomace is the food item (applies to pome fruits etc )</t>
+  </si>
+  <si>
+    <t>Peeling (inedible peel)</t>
+  </si>
+  <si>
+    <t>T101A</t>
+  </si>
+  <si>
+    <t>Removal of inedible peel where the internal fruit or vegetable is the food item (applies to banannas, pineapple, cucurbits etc)</t>
+  </si>
+  <si>
+    <t>Pelleting</t>
+  </si>
+  <si>
+    <t>T143A</t>
+  </si>
+  <si>
+    <t>Special shaping by compression through a die</t>
+  </si>
+  <si>
+    <t>Pickling</t>
+  </si>
+  <si>
+    <t>T133A</t>
+  </si>
+  <si>
+    <t>Brining or corning, preserving of food by anaerobic fermentation in salt solution (applies to cucumber, cabbage etc)</t>
+  </si>
+  <si>
+    <t>Polishing</t>
+  </si>
+  <si>
+    <t>T114A</t>
+  </si>
+  <si>
+    <t>Cereal polishing (applies to rice, barley etc)</t>
+  </si>
+  <si>
+    <t>Pregelatinisation</t>
+  </si>
+  <si>
+    <t>T144A</t>
+  </si>
+  <si>
+    <t>Modification of starch to improve markedly its swelling properties in cold water</t>
+  </si>
+  <si>
+    <t>Preserving</t>
+  </si>
+  <si>
+    <t>T121A</t>
+  </si>
+  <si>
+    <t>Production of jams, sauces, marmalades, jelly (applies to citrus fruits, berries, tomatoes etc)</t>
+  </si>
+  <si>
+    <t>Pressing</t>
+  </si>
+  <si>
+    <t>T149A</t>
+  </si>
+  <si>
+    <t>Removal by mechanical extraction (by a screw or other type of press), with or without a slight heating, of fat/oil from oil-rich materials or of juice from fruits or other vegetable products</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>T100A</t>
+  </si>
+  <si>
+    <t>To be used for processed products that cannot be used described with the classes below</t>
+  </si>
+  <si>
+    <t>Production of alcoholic beverages</t>
+  </si>
+  <si>
+    <t>T122A</t>
+  </si>
+  <si>
+    <t>Fermentation, Malting, Brewing, Distillation (applies to grapes (Wine, Must), hops (Beer), barley (Beer) etc)</t>
+  </si>
+  <si>
+    <t>Refining</t>
+  </si>
+  <si>
+    <t>T145A</t>
+  </si>
+  <si>
+    <t>Complete or partial removal of impurities in sugars, oils,fats and other natural materials by chemical/physical treatment. For oils and sugar use their specific entry in sugar production and oil production.</t>
+  </si>
+  <si>
+    <t>Silage/Fodder production</t>
+  </si>
+  <si>
+    <t>T115A</t>
+  </si>
+  <si>
+    <t>Process to product animal feed</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>T135A</t>
+  </si>
+  <si>
+    <t>Sugar production</t>
+  </si>
+  <si>
+    <t>T116A</t>
+  </si>
+  <si>
+    <t>Extraction of sugar (applied to sugar cane, sugar beet etc)</t>
+  </si>
+  <si>
+    <t>Sugar production - raw</t>
+  </si>
+  <si>
+    <t>T117A</t>
+  </si>
+  <si>
+    <t>Extraction of raw sugar (applied to sugar cane, sugar beet etc)</t>
+  </si>
+  <si>
+    <t>Sugar production - refined</t>
+  </si>
+  <si>
+    <t>T118A</t>
+  </si>
+  <si>
+    <t>Extraction of refined sugar (applied to sugar cane, sugar beet etc)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>T899A</t>
+  </si>
+  <si>
+    <t>Unprocessed</t>
+  </si>
+  <si>
+    <t>T999A</t>
+  </si>
+  <si>
+    <t>No processing has been applied to the product, as harvested from farm</t>
+  </si>
+  <si>
     <t>Wet-milling</t>
   </si>
   <si>
@@ -465,58 +483,40 @@
     <t>Mechanical separation of the component parts of kernel/grain, sometimes after steeping in water, with or without sulphur dioxide, for the extraction of starch</t>
   </si>
   <si>
-    <t>Pressing</t>
-  </si>
-  <si>
-    <t>T149A</t>
-  </si>
-  <si>
-    <t>Removal by mechanical extraction (by a screw or other type of press), with or without a slight heating, of fat/oil from oil-rich materials or of juice from fruits or other vegetable products</t>
-  </si>
-  <si>
-    <t>Milk pasteurisation</t>
-  </si>
-  <si>
-    <t>T150A</t>
-  </si>
-  <si>
-    <t>Pasteurisation, filtration, sterilisation or other treatments of raw milk with the purpose of extending the shelfs-life of milk.</t>
-  </si>
-  <si>
-    <t>Pasteurisation</t>
-  </si>
-  <si>
-    <t>T151A</t>
-  </si>
-  <si>
-    <t>Pasteurization is a process of heating a food, usually a liquid, to a specific temperature for a definite length of time and then cooling it immediately. Pasteurization slows microbial growth in the food.</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>T899A</t>
-  </si>
-  <si>
-    <t>Freezing</t>
-  </si>
-  <si>
-    <t>T998A</t>
-  </si>
-  <si>
-    <t>Freezing of harvested products</t>
-  </si>
-  <si>
-    <t>Unprocessed</t>
-  </si>
-  <si>
-    <t>T999A</t>
-  </si>
-  <si>
-    <t>No processing has been applied to the product, as harvested from farm</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>Wine production</t>
+  </si>
+  <si>
+    <t>T123A</t>
+  </si>
+  <si>
+    <t>Production of wine process unknown (applies to grapes)</t>
+  </si>
+  <si>
+    <t>Wine production - red wine cold process</t>
+  </si>
+  <si>
+    <t>T125A</t>
+  </si>
+  <si>
+    <t>Red wine production (unheated)</t>
+  </si>
+  <si>
+    <t>Wine production - red wine warm process</t>
+  </si>
+  <si>
+    <t>T126A</t>
+  </si>
+  <si>
+    <t>Red wine production (heated)</t>
+  </si>
+  <si>
+    <t>Wine production - white wine</t>
+  </si>
+  <si>
+    <t>T124A</t>
+  </si>
+  <si>
+    <t>White wine production (unheated)</t>
   </si>
 </sst>
 </file>
@@ -925,51 +925,48 @@
         <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
         <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
         <v>106</v>
-      </c>
-      <c r="B36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
         <v>109</v>
@@ -977,215 +974,218 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>115</v>
-      </c>
-      <c r="C39" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>133</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>136</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
-      </c>
-      <c r="B48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
         <v>144</v>
-      </c>
-      <c r="B49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
         <v>147</v>
-      </c>
-      <c r="B50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
-      </c>
-      <c r="B55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" t="s">
         <v>164</v>
-      </c>
-      <c r="B56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
         <v>167</v>
       </c>
     </row>
